--- a/Document/API.xlsx
+++ b/Document/API.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LimHJ\Desktop\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim HJ\Desktop\소마\과제\BlockBuster\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나중에 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,6 +680,42 @@
   </si>
   <si>
     <t>previous_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +876,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G20"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1220,7 @@
     <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="3" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
     <col min="13" max="13" width="31.875" style="3" customWidth="1"/>
@@ -1214,18 +1258,24 @@
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1255,14 +1305,14 @@
         <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1290,14 +1340,14 @@
         <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1366,14 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
@@ -1345,30 +1395,30 @@
         <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>143</v>
+      <c r="D6" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>17</v>
@@ -1388,14 +1438,14 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1423,551 +1473,517 @@
         <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>500</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>47</v>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="O9">
         <v>501</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="O10">
         <v>502</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="O11">
         <v>600</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="L22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>8</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>6</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>7</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="M24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>8</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>9</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
       <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1975,39 +1991,104 @@
         <v>38</v>
       </c>
       <c r="M25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>9</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
@@ -2016,6 +2097,30 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2043,24 +2148,24 @@
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
         <v>160</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2068,37 +2173,37 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2106,31 +2211,31 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2149,52 +2254,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Document/API.xlsx
+++ b/Document/API.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="177">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 유저의 uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 유저의 sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻은 Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기록이 새로운 기록인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위 변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃할 유저의 uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과(성공시 True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 순위 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위들 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/score/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위들을 가져올 시작점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위들을 가져올 끝점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 순위의 유저의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 순위의 점수(내림차순)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_play_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log_Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 조회(uid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/user/uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 조회(기타)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/user/etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾을 유저의 계정 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾을 유저의 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과(있으면 True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Facebook으로 계정이 이미 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Twitter로 계정이 이미 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Google로 계정이 이미 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Email로 계정이 이미 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 uid에 맞는 계정이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 기타 정보에 맞는 계정이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,27 +603,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인한 유저의 uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 유저의 sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 전송</t>
+    <t>로그아웃할 유저의 sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위를 가져올 유저의 uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 계정 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 계정이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 맞지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 접속해 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 인증 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log_Access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,135 +719,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얻은 Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNewRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 기록이 새로운 기록인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위 변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃할 유저의 uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과(성공시 True)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 순위 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/user/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위들 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/score/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위들을 가져올 시작점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위들을 가져올 끝점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data(list)</t>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과(있으면 True)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,291 +731,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 순위의 유저의 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 순위의 점수(내림차순)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_play_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log_Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 조회(uid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/user/uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 조회(기타)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/user/etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾을 유저의 계정 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾을 유저의 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과(있으면 True)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 Facebook으로 계정이 이미 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 Twitter로 계정이 이미 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 Google로 계정이 이미 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 Email로 계정이 이미 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당하는 uid에 맞는 계정이 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당하는 기타 정보에 맞는 계정이 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃할 유저의 sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위를 가져올 유저의 uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 계정 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 계정이 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 맞지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미 접속해 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 인증 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log_Access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>previous_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 타입</t>
+    <t>로그인한 유저의 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,15 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,20 +1269,20 @@
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1305,14 +1312,14 @@
         <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1340,14 +1347,14 @@
         <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1366,14 +1373,14 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
@@ -1395,21 +1402,21 @@
         <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>142</v>
+      <c r="D6" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>55</v>
@@ -1438,14 +1445,14 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1473,26 +1480,26 @@
         <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1514,82 +1521,82 @@
         <v>500</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="9"/>
       <c r="I9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O9">
         <v>501</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="I10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O10">
         <v>502</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="I11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O11">
         <v>600</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
       <c r="I12" s="10" t="s">
@@ -1605,62 +1612,62 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>59</v>
+      <c r="F14" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1668,26 +1675,26 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>54</v>
@@ -1695,396 +1702,481 @@
       <c r="I15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="17" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="I16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>64</v>
+      <c r="H17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>6</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>74</v>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>74</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
       <c r="I21" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M21" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>7</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
+      <c r="C22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>37</v>
+      <c r="J22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="10" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>46</v>
+      <c r="G23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
-        <v>8</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>59</v>
+      <c r="F24" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>38</v>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="13"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10" t="s">
-        <v>38</v>
+      <c r="I25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>9</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>93</v>
+      <c r="A26" s="19">
+        <v>7</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>8</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>9</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="L31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="3" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10" t="s">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M32" s="13" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
@@ -2097,30 +2189,22 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2148,24 +2232,24 @@
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
         <v>159</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2173,37 +2257,37 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2211,31 +2295,31 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2254,52 +2338,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Document/API.xlsx
+++ b/Document/API.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +732,30 @@
   </si>
   <si>
     <t>로그인한 유저의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/user/login/session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 할 세션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 로그인 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +920,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1610,6 +1637,12 @@
       <c r="M12" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="O12">
+        <v>601</v>
+      </c>
+      <c r="P12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
@@ -2164,6 +2197,121 @@
         <v>38</v>
       </c>
       <c r="M32" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I34" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="13" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Document/API.xlsx
+++ b/Document/API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESTful api 설계" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="192">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,10 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +756,42 @@
   </si>
   <si>
     <t>세션 로그인 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페북의 UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb_userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페북 user id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Facebook으로 계정이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +824,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -845,13 +881,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +968,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1404,27 +1458,24 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="9"/>
       <c r="O5">
         <v>104</v>
       </c>
@@ -1433,41 +1484,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="9"/>
       <c r="O6">
         <v>200</v>
       </c>
@@ -1476,32 +1510,40 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>40</v>
+      <c r="G7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="O7">
         <v>201</v>
@@ -1511,38 +1553,32 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="O8">
         <v>500</v>
@@ -1552,21 +1588,40 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9"/>
-      <c r="I9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>167</v>
+      <c r="A9" s="19">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="O9">
         <v>501</v>
@@ -1580,14 +1635,19 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="I10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>168</v>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O10">
         <v>502</v>
@@ -1601,173 +1661,176 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="I11" s="1" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11">
+        <v>503</v>
+      </c>
+      <c r="P11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="I12" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="O11">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13">
         <v>600</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12">
-        <v>601</v>
-      </c>
-      <c r="P12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14">
+        <v>601</v>
+      </c>
+      <c r="P14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="M15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1776,22 +1839,21 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>167</v>
+        <v>53</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>60</v>
@@ -1802,14 +1864,28 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="I18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="E18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>176</v>
+      <c r="M18" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1817,19 +1893,25 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="I19" s="18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1841,101 +1923,92 @@
       <c r="F20" s="16"/>
       <c r="G20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="9"/>
+      <c r="I21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="13" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="M22" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="18" t="s">
+      <c r="C23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="18"/>
       <c r="J23" s="18" t="s">
         <v>71</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>75</v>
@@ -1947,13 +2020,16 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="18" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>68</v>
+        <v>155</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="s">
@@ -1961,398 +2037,1385 @@
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="17" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>7</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="B27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>8</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="F29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>8</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="J29" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>9</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>9</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
+      <c r="F31" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="10" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="13" t="s">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M34" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I34" s="16" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="I35" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I35" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
       <c r="I36" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>176</v>
+      <c r="M36" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
       <c r="I37" s="18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="I39" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I39" s="17" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17" t="s">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>2</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>3</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="9"/>
+      <c r="I45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="I46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="I47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>4</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>5</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="9"/>
+      <c r="I55" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="9"/>
+      <c r="I56" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>6</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>7</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>8</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>9</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="13" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>10</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="22"/>
+      <c r="I70" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="22"/>
+      <c r="I71" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="22"/>
+      <c r="I72" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="22"/>
+      <c r="I73" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="22"/>
+      <c r="I74" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
+  <mergeCells count="76">
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2362,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L19"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2378,23 +3441,39 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
         <v>159</v>
@@ -2402,72 +3481,64 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2489,7 +3560,7 @@
         <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
@@ -2500,7 +3571,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
         <v>159</v>
@@ -2508,16 +3579,16 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
@@ -2528,7 +3599,7 @@
         <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
